--- a/AfDD_2022_Country_groupings.xlsx
+++ b/AfDD_2022_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>Least Developed Countries (LDC)(8)</t>
   </si>
   <si>
-    <t>Fragility (2020 OECD report)(9)</t>
+    <t>Fragility (2018 OECD report)(9)</t>
   </si>
   <si>
     <t>Common Market for Eastern and Southern Africa (COMESA)(10)</t>
@@ -1446,91 +1446,16 @@
     <t>10. Eight regional economic communities of African nations recognized by the African Union. ASEAN, a grouping of Asian countries, Mercosur, a grouping of Latin American communities, the countries of the European Union and the OECD are added for comparison. Aggregate figures for PALOP countries were included in response to a request from members of this country grouping.</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -1617,18 +1542,17 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1690,7 +1614,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1780,7 +1704,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2063,7 +1989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA214"/>
+  <dimension ref="A1:AA215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -18435,30 +18361,34 @@
       <c r="U207" s="31"/>
       <c r="V207" s="31"/>
     </row>
-    <row r="210" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B210" s="33" t="s">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B208" s="32"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="N208" s="31"/>
+      <c r="P208" s="31"/>
+      <c r="T208" s="31"/>
+      <c r="U208" s="31"/>
+      <c r="V208" s="31"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A209" s="33" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B211" s="33"/>
-    </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B212" s="1" t="s">
+    <row r="211" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B211" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
-      <c r="K212"/>
-      <c r="L212"/>
-    </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B213" s="1" t="s">
         <v>476</v>
       </c>
@@ -18473,7 +18403,7 @@
       <c r="K213"/>
       <c r="L213"/>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B214" s="1" t="s">
         <v>477</v>
       </c>
@@ -18488,15 +18418,27 @@
       <c r="K214"/>
       <c r="L214"/>
     </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B215" s="35"/>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215"/>
+      <c r="J215"/>
+      <c r="K215"/>
+      <c r="L215"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B212" r:id="rId1"/>
-    <hyperlink ref="B213" r:id="rId2"/>
-    <hyperlink ref="B214" r:id="rId3"/>
     <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
-    <hyperlink ref="B210" r:id="rId4"/>
+    <hyperlink ref="B211" r:id="rId1"/>
+    <hyperlink ref="B214" r:id="rId2"/>
+    <hyperlink ref="B213" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Country_groupings.xlsx
+++ b/AfDD_2022_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>Least Developed Countries (LDC)(8)</t>
   </si>
   <si>
-    <t>Fragility (2018 OECD report)(9)</t>
+    <t>Fragility (2020 OECD report)(9)</t>
   </si>
   <si>
     <t>Common Market for Eastern and Southern Africa (COMESA)(10)</t>

--- a/AfDD_2022_Country_groupings.xlsx
+++ b/AfDD_2022_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Country_groupings.xlsx
+++ b/AfDD_2022_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Country_groupings.xlsx
+++ b/AfDD_2022_Country_groupings.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Country groupings'!$A$3:$AA$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Country groupings'!$A$1:$AA$196</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>

--- a/AfDD_2022_Country_groupings.xlsx
+++ b/AfDD_2022_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Country_groupings.xlsx
+++ b/AfDD_2022_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -1317,7 +1317,7 @@
     <t>TUR</t>
   </si>
   <si>
-    <t>Turkey</t>
+    <t>Türkiye</t>
   </si>
   <si>
     <t>TUV</t>
@@ -1425,7 +1425,7 @@
     <t>3. In the Africa's Development Dynamics report, benchmark figures were calculated for Asian countries (excluding high income countries), and for Latin America and the Caribbean to serve as a comparison.</t>
   </si>
   <si>
-    <t>4. Countries for whom exports of underground natural resources (including nonmetallic ores and precious stones) and unrefined or unwrought metals and mattes were on average over 15% of GDP between 2010 and 2018 were classified as "resource-exporting".</t>
+    <t>4. Countries for whom Imports of underground natural resources (including nonmetallic ores and precious stones) and unrefined or unwrought metals and mattes were on average over 15% of GDP between 2010 and 2018 were classified as "resource-Importing".</t>
   </si>
   <si>
     <t>5. Countries for whom over 10% of GDP came from oil and natural gas production for at least 5 years between 2010 and 2019 were classified as "oil-rich".</t>
@@ -1449,7 +1449,7 @@
     <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
@@ -18434,7 +18434,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
-    <hyperlink ref="B211" r:id="rId1"/>
+    <hyperlink ref="B211" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
     <hyperlink ref="B214" r:id="rId2"/>
     <hyperlink ref="B213" r:id="rId3"/>
   </hyperlinks>
